--- a/Test_Dates/TestDates.xlsx
+++ b/Test_Dates/TestDates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoQA\Test_Dates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19559CC-01CC-43D7-AF76-E23045B9DD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5233AF7-49E4-4450-BE1E-0791C05B6056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{7E79213E-5E7C-47A2-9C08-10045994925E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{7E79213E-5E7C-47A2-9C08-10045994925E}"/>
   </bookViews>
   <sheets>
     <sheet name="TextBox" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>Nombre</t>
   </si>
@@ -183,9 +172,6 @@
     <t>Hobbies</t>
   </si>
   <si>
-    <t>Sports, Music</t>
-  </si>
-  <si>
     <t>Dirección</t>
   </si>
   <si>
@@ -213,30 +199,12 @@
     <t>Teéfono</t>
   </si>
   <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Vaquero</t>
-  </si>
-  <si>
-    <t>rober.vaquero@test.prueba.com</t>
-  </si>
-  <si>
-    <t>C/ Lavapies 12, 1º A</t>
-  </si>
-  <si>
     <t>Haryana</t>
   </si>
   <si>
     <t>Karnal</t>
   </si>
   <si>
-    <t>Social Studies, Biology, History</t>
-  </si>
-  <si>
-    <t>Read</t>
-  </si>
-  <si>
     <t>El teléfono debe tener 10 digitos</t>
   </si>
   <si>
@@ -262,6 +230,24 @@
   </si>
   <si>
     <t xml:space="preserve">Explicación Formato para los campos </t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>juana.r@test.com</t>
+  </si>
+  <si>
+    <t>Av de España 2</t>
+  </si>
+  <si>
+    <t>Sports, Music , Read</t>
+  </si>
+  <si>
+    <t>Read, Music</t>
+  </si>
+  <si>
+    <t>Social Studies, English, Maths, Commerce</t>
   </si>
 </sst>
 </file>
@@ -332,7 +318,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,7 +637,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
@@ -732,7 +718,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
@@ -826,7 +812,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -929,11 +915,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF75E48C-BDE4-438E-A613-948167B1CF16}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
@@ -943,7 +929,7 @@
     <col min="6" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -958,19 +944,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>42</v>
@@ -984,42 +970,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>9876543210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2">
-        <v>1234567890</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2">
-        <v>33873</v>
+        <v>37519</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1040,19 +1026,19 @@
         <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>6661112221</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
         <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -1064,42 +1050,42 @@
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
         <v>65</v>
       </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
-      </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1121,7 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
